--- a/Day14/caldata.xlsx
+++ b/Day14/caldata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RezaRendi\PycharmProjects\pythonProject\selenium\Day14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RezaRendi\PycharmProjects\pythonProject\Selenium with Python\Day14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2204A1DC-98DF-4944-8C48-2C4026D2BBA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE1ABDE1-4079-4A57-9FB4-6D72E9883D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14535" yWindow="3615" windowWidth="14265" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,14 +468,14 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
